--- a/Companies/Diversified/ITC Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/Diversified/ITC Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>8,800.22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,188.25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9,077.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8,699.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>8,792.99</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8,699.36</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,077.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,188.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8,800.22</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>9188.25</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>8699.360000000001</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>8911.734</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>142.37</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>104.53</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>74.07</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>104.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>142.37</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>142.37</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>74.06999999999999</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>100.534</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>8,942.59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9,292.78</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9,160.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8,798.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>8,867.06</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8,798.89</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,160.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9,292.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8,942.59</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>9292.780000000001</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>8798.889999999999</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>9012.268</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2,731.05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2,803.44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,569.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2,691.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2,760.36</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2,691.47</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2,569.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2,803.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2,731.05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>2803.44</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>2569.08</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2711.08</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>579.50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>759.37</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>629.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>438.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>705.40</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>438.01</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>629.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>759.37</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>579.50</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>759.37</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>438.01</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>622.26</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>167.01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>543.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-16.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-437.69</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-16.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>543.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>167.01</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>543.1900000000001</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-437.69</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>71.07600000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>419.12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>454.39</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>627.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>578.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>571.37</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>578.05</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>627.46</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>454.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>419.12</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>627.46</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>419.12</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>530.078</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>237.63</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>249.57</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>257.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>258.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>261.87</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>258.20</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>257.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>249.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>237.63</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>261.87</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>237.63</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>252.976</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,581.71</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,933.60</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,539.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,724.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,793.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,724.64</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,539.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,933.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,581.71</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1933.6</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1539.04</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1714.398</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,226.57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,993.54</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,994.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,124.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,212.75</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,124.52</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,994.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,993.54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,226.57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3226.57</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2993.54</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3110.4</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>581.99</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>370.37</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>356.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>392.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>648.97</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>392.57</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>356.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>370.37</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>581.99</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>648.97</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>356.49</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>470.078</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,808.56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,363.91</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,351.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,517.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,861.72</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,517.09</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,351.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,363.91</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,808.56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3861.72</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3351.11</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3580.478</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>16.09</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.31</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>15.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>12.148</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>3,800.19</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,348.40</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,340.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,506.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>3,845.63</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,506.78</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,340.65</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,348.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3,800.19</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3845.63</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3340.65</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3568.33</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>3,800.19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,348.40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,340.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,506.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,845.63</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,506.78</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,340.65</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3,348.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3,800.19</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3845.63</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>3340.65</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>3568.33</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,165.19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>987.22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,174.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,244.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,341.87</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,244.28</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,174.56</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>987.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,165.19</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1341.87</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>987.22</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1182.624</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>2,635.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,361.18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,166.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2,262.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,503.76</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2,262.50</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,166.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,361.18</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2,635.00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2635</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2166.09</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2385.706</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,635.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,361.18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,166.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,262.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,503.76</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,262.50</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,166.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,361.18</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,635.00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2635</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2166.09</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2385.706</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>799.54</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>801.55</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>801.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>802.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>803.67</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>802.65</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>801.55</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>801.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>799.54</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>803.67</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>799.54</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>801.792</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2.08</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.402</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.06</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.384</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2.08</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.402</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.06</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.384</v>
       </c>
     </row>
     <row r="31"/>
@@ -1479,37 +1249,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>797.55</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>799.56</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>799.56</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>797.55</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>799.5599999999999</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>797.55</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>798.5549999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1520,37 +1281,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>99.75</v>
       </c>
     </row>
     <row r="35"/>
